--- a/genshin/458135580123001965_2020-11-16_14-00-02.xlsx
+++ b/genshin/458135580123001965_2020-11-16_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 01:50:50</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.07696759259</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:41:43</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44153.94563657408</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>3719742847</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-11-18 12:56:28</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44153.53921296296</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -760,10 +770,8 @@
           <t>3713277902</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-11-17 20:22:15</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44152.84878472222</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-11-17 17:46:15</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44152.74045138889</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -902,10 +908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-11-17 12:22:51</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44152.51586805555</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -977,10 +981,8 @@
           <t>3713561818</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-11-17 12:15:06</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44152.51048611111</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1044,10 +1046,8 @@
           <t>3715251202</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-11-17 11:49:53</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44152.49297453704</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1111,10 +1111,8 @@
           <t>3714808689</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-11-17 11:19:51</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44152.47211805556</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1182,10 +1180,8 @@
           <t>3715273849</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-11-17 11:18:44</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44152.47134259259</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1253,10 +1249,8 @@
           <t>3713340850</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-11-17 10:21:23</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44152.4315162037</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1332,10 +1326,8 @@
           <t>3713277902</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-11-17 09:08:14</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44152.38071759259</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1411,10 +1403,8 @@
           <t>3715264487</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-11-17 09:02:44</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44152.37689814815</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1482,10 +1472,8 @@
           <t>3715450624</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-11-17 09:00:26</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44152.37530092592</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1561,10 +1549,8 @@
           <t>3715626537</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-11-17 07:30:49</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44152.31306712963</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1628,10 +1614,8 @@
           <t>3715567320</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-11-17 06:17:42</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44152.26229166667</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1699,10 +1683,8 @@
           <t>3715450624</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-11-17 02:18:23</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44152.09609953704</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1770,10 +1752,8 @@
           <t>3715328812</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-11-17 00:57:41</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44152.04005787037</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1845,10 +1825,8 @@
           <t>3715324460</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-11-17 00:56:49</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44152.03945601852</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1920,10 +1898,8 @@
           <t>3715323902</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-11-17 00:56:05</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44152.03894675926</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1995,10 +1971,8 @@
           <t>3715308105</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-11-17 00:48:30</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44152.03368055556</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2066,10 +2040,8 @@
           <t>3715305037</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-11-17 00:44:45</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44152.03107638889</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2137,10 +2109,8 @@
           <t>3715273849</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-11-17 00:36:38</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44152.02543981482</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2208,10 +2178,8 @@
           <t>3715264487</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-11-17 00:32:46</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44152.02275462963</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2279,10 +2247,8 @@
           <t>3714778217</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-11-17 00:32:25</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44152.02251157408</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2350,10 +2316,8 @@
           <t>3715263291</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-11-17 00:31:29</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44152.02186342593</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2421,10 +2385,8 @@
           <t>3715266879</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-11-17 00:30:46</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44152.02136574074</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2496,10 +2458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-11-17 00:29:08</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44152.02023148148</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2563,10 +2523,8 @@
           <t>3713277902</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-11-17 00:29:01</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44152.02015046297</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2634,10 +2592,8 @@
           <t>3713277902</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-11-17 00:27:25</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44152.01903935185</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2705,10 +2661,8 @@
           <t>3715251202</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-11-17 00:24:58</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44152.01733796296</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -2786,10 +2740,8 @@
           <t>3713612896</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-11-16 23:53:12</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44151.99527777778</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
@@ -2857,10 +2809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-11-16 23:49:34</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44151.99275462963</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2928,10 +2878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-11-16 22:41:37</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44151.94556712963</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3007,10 +2955,8 @@
           <t>3714808689</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-11-16 22:33:35</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44151.93998842593</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3082,10 +3028,8 @@
           <t>3714808350</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-11-16 22:33:19</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44151.93980324074</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3157,10 +3101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-11-16 22:32:11</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44151.9390162037</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3232,10 +3174,8 @@
           <t>3714778217</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-11-16 22:26:06</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44151.93479166667</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3307,10 +3247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-11-16 22:17:29</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44151.92880787037</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3374,10 +3312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-11-16 21:47:44</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44151.90814814815</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3453,10 +3389,8 @@
           <t>3713612896</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-11-16 21:41:29</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44151.90380787037</v>
       </c>
       <c r="I42" t="n">
         <v>3</v>
@@ -3524,10 +3458,8 @@
           <t>3714092838</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-11-16 19:20:09</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44151.80565972222</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3595,10 +3527,8 @@
           <t>3713238613</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-11-16 18:36:31</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44151.77535879629</v>
       </c>
       <c r="I44" t="n">
         <v>2</v>
@@ -3670,10 +3600,8 @@
           <t>3713284608</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:59:58</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44151.74997685185</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3741,10 +3669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:49:55</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44151.74299768519</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3804,10 +3730,8 @@
           <t>3713739520</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:46:21</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44151.74052083334</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3879,10 +3803,8 @@
           <t>3713739520</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:43:20</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44151.73842592593</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3950,10 +3872,8 @@
           <t>3713746590</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:41:39</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44151.73725694444</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4025,10 +3945,8 @@
           <t>3713739520</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:41:07</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44151.73688657407</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4100,10 +4018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:40:30</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44151.73645833333</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4172,10 +4088,8 @@
           <t>3713284608</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:40:08</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44151.7362037037</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4247,10 +4161,8 @@
           <t>3713738461</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:40:04</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44151.73615740741</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4322,10 +4234,8 @@
           <t>3713721567</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:33:06</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44151.73131944444</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4397,10 +4307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:30:57</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44151.72982638889</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4464,10 +4372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:24:37</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44151.72542824074</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4543,10 +4449,8 @@
           <t>3713277902</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:23:29</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44151.72464120371</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4622,10 +4526,8 @@
           <t>3713284608</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:18:23</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44151.72109953704</v>
       </c>
       <c r="I58" t="n">
         <v>2</v>
@@ -4693,10 +4595,8 @@
           <t>3713573936</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:16:28</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44151.71976851852</v>
       </c>
       <c r="I59" t="n">
         <v>2</v>
@@ -4772,10 +4672,8 @@
           <t>3713284608</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:13:11</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44151.71748842593</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4843,10 +4741,8 @@
           <t>3713612896</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:02:39</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44151.71017361111</v>
       </c>
       <c r="I61" t="n">
         <v>16</v>
@@ -4922,10 +4818,8 @@
           <t>3713277902</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:01:30</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44151.709375</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4993,10 +4887,8 @@
           <t>3713284608</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-11-16 17:00:22</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44151.70858796296</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5068,10 +4960,8 @@
           <t>3713284608</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:59:17</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44151.70783564815</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5143,10 +5033,8 @@
           <t>3713612896</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:55:11</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44151.70498842592</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5210,10 +5098,8 @@
           <t>3713573936</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:40:39</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44151.69489583333</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
@@ -5289,10 +5175,8 @@
           <t>3713573936</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:39:40</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44151.69421296296</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
@@ -5368,10 +5252,8 @@
           <t>3713561818</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:39:38</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44151.69418981481</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5435,10 +5317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:37:33</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44151.69274305556</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5510,10 +5390,8 @@
           <t>3713561818</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:35:51</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44151.6915625</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5585,10 +5463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:29:22</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44151.68706018518</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5652,10 +5528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:27:05</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44151.68547453704</v>
       </c>
       <c r="I72" t="n">
         <v>3</v>
@@ -5723,10 +5597,8 @@
           <t>3713277902</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:21:26</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44151.68155092592</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5802,10 +5674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:16:12</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44151.67791666667</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5865,10 +5735,8 @@
           <t>3713444214</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:11:27</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44151.67461805556</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5944,10 +5812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:11:24</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44151.67458333333</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -6019,10 +5885,8 @@
           <t>3713444214</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:06:38</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44151.67127314815</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6086,10 +5950,8 @@
           <t>3713484299</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-11-16 16:02:12</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44151.66819444444</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6157,10 +6019,8 @@
           <t>3713444214</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:46:45</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44151.65746527778</v>
       </c>
       <c r="I79" t="n">
         <v>6</v>
@@ -6236,10 +6096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:34:22</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44151.64886574074</v>
       </c>
       <c r="I80" t="n">
         <v>2</v>
@@ -6307,10 +6165,8 @@
           <t>3713422426</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:32:16</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44151.64740740741</v>
       </c>
       <c r="I81" t="n">
         <v>4</v>
@@ -6374,10 +6230,8 @@
           <t>3713422247</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:32:02</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44151.64724537037</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6445,10 +6299,8 @@
           <t>3713404202</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:27:55</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44151.64438657407</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6520,10 +6372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:26:22</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44151.64331018519</v>
       </c>
       <c r="I84" t="n">
         <v>25</v>
@@ -6591,10 +6441,8 @@
           <t>3713399028</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:25:57</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44151.64302083333</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6658,10 +6506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:22:50</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44151.64085648148</v>
       </c>
       <c r="I86" t="n">
         <v>2</v>
@@ -6737,10 +6583,8 @@
           <t>3713395940</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:21:52</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44151.64018518518</v>
       </c>
       <c r="I87" t="n">
         <v>4</v>
@@ -6815,10 +6659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:20:21</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44151.63913194444</v>
       </c>
       <c r="I88" t="n">
         <v>57</v>
@@ -6882,10 +6724,8 @@
           <t>3713384183</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:19:30</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44151.63854166667</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6960,10 +6800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:18:27</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44151.6378125</v>
       </c>
       <c r="I90" t="n">
         <v>3</v>
@@ -7027,10 +6865,8 @@
           <t>3713372450</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:17:18</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44151.63701388889</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7098,10 +6934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:14:34</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44151.63511574074</v>
       </c>
       <c r="I92" t="n">
         <v>9</v>
@@ -7169,10 +7003,8 @@
           <t>3713372450</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:11:48</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44151.63319444445</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7240,10 +7072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:11:21</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44151.63288194445</v>
       </c>
       <c r="I94" t="n">
         <v>9</v>
@@ -7307,10 +7137,8 @@
           <t>3713352694</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:08:41</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44151.63103009259</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7378,10 +7206,8 @@
           <t>3713366286</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:08:21</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44151.63079861111</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7449,10 +7275,8 @@
           <t>3713352694</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:06:16</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44151.62935185185</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7528,10 +7352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:04:33</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44151.62815972222</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7595,10 +7417,8 @@
           <t>3713352694</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:04:08</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44151.62787037037</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7667,10 +7487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:04:07</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44151.6278587963</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
@@ -7746,10 +7564,8 @@
           <t>3713352694</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:03:11</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44151.62721064815</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7825,10 +7641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:03:10</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44151.62719907407</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -7896,10 +7710,8 @@
           <t>3713360388</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-11-16 15:01:58</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44151.62636574074</v>
       </c>
       <c r="I103" t="n">
         <v>3</v>
@@ -7975,10 +7787,8 @@
           <t>3713238613</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:59:07</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44151.62438657408</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8046,10 +7856,8 @@
           <t>3713341730</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:56:10</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44151.62233796297</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8113,10 +7921,8 @@
           <t>3713340850</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:54:47</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44151.62137731481</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -8180,10 +7986,8 @@
           <t>3713340694</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:54:34</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44151.62122685185</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8247,10 +8051,8 @@
           <t>3713340277</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:53:58</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44151.62081018519</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8314,10 +8116,8 @@
           <t>3713328907</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:51:59</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44151.61943287037</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8391,10 +8191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:50:18</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44151.61826388889</v>
       </c>
       <c r="I110" t="n">
         <v>4</v>
@@ -8462,10 +8260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:42:14</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44151.61266203703</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8537,10 +8333,8 @@
           <t>3713277902</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:39:45</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44151.6109375</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8608,10 +8402,8 @@
           <t>3713315022</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:39:40</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44151.61087962963</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8675,10 +8467,8 @@
           <t>3713284608</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:37:02</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44151.60905092592</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8750,10 +8540,8 @@
           <t>3713277902</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:34:58</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44151.60761574074</v>
       </c>
       <c r="I115" t="n">
         <v>3</v>
@@ -8825,10 +8613,8 @@
           <t>3713301434</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:34:22</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44151.60719907407</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8892,10 +8678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:30:34</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44151.60456018519</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -8963,10 +8747,8 @@
           <t>3713284608</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:30:29</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44151.60450231482</v>
       </c>
       <c r="I118" t="n">
         <v>31</v>
@@ -9034,10 +8816,8 @@
           <t>3713282968</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:28:06</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44151.60284722222</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9113,10 +8893,8 @@
           <t>3713277902</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:27:24</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44151.60236111111</v>
       </c>
       <c r="I120" t="n">
         <v>10</v>
@@ -9180,10 +8958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:27:20</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44151.60231481482</v>
       </c>
       <c r="I121" t="n">
         <v>113</v>
@@ -9255,10 +9031,8 @@
           <t>3713269747</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:23:17</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44151.59950231481</v>
       </c>
       <c r="I122" t="n">
         <v>2</v>
@@ -9326,10 +9100,8 @@
           <t>3713254623</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:22:17</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44151.59880787037</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9397,10 +9169,8 @@
           <t>3713245038</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:21:32</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44151.59828703704</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9468,10 +9238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:21:27</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44151.59822916667</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9539,10 +9307,8 @@
           <t>3713268308</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:21:06</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44151.59798611111</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9618,10 +9384,8 @@
           <t>3713238613</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:20:37</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44151.59765046297</v>
       </c>
       <c r="I127" t="n">
         <v>4</v>
@@ -9685,10 +9449,8 @@
           <t>3713271698</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:20:17</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44151.59741898148</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9760,10 +9522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:16:38</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44151.59488425926</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9831,10 +9591,8 @@
           <t>3713254623</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:15:43</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44151.59424768519</v>
       </c>
       <c r="I130" t="n">
         <v>11</v>
@@ -9926,10 +9684,8 @@
           <t>3713255716</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:11:53</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44151.59158564815</v>
       </c>
       <c r="I131" t="n">
         <v>6</v>
@@ -9993,10 +9749,8 @@
           <t>3713250760</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:10:18</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44151.59048611111</v>
       </c>
       <c r="I132" t="n">
         <v>7</v>
@@ -10072,10 +9826,8 @@
           <t>3713245038</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:09:03</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44151.58961805556</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10147,10 +9899,8 @@
           <t>3713238613</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:09:02</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44151.58960648148</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10226,10 +9976,8 @@
           <t>3713243345</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:08:34</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44151.58928240741</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10293,10 +10041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:07:41</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44151.58866898148</v>
       </c>
       <c r="I136" t="n">
         <v>4</v>
@@ -10360,10 +10106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:07:27</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44151.58850694444</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10439,10 +10183,8 @@
           <t>3713242436</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:07:15</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44151.58836805556</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10514,10 +10256,8 @@
           <t>3713238613</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:07:13</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44151.58834490741</v>
       </c>
       <c r="I139" t="n">
         <v>41</v>
@@ -10589,10 +10329,8 @@
           <t>3713238392</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:06:54</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44151.588125</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10664,10 +10402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:06:42</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44151.58798611111</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10743,10 +10479,8 @@
           <t>3713238208</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:06:38</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44151.58793981482</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10818,10 +10552,8 @@
           <t>3713241810</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:06:18</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44151.58770833333</v>
       </c>
       <c r="I143" t="n">
         <v>17</v>
@@ -10897,10 +10629,8 @@
           <t>3713240938</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:05:04</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44151.58685185185</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -10972,10 +10702,8 @@
           <t>3713240571</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:04:35</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44151.5865162037</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11043,10 +10771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:03:13</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44151.58556712963</v>
       </c>
       <c r="I146" t="n">
         <v>63</v>
@@ -11114,10 +10840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:02:59</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44151.58540509259</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11185,10 +10909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:02:58</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44151.58539351852</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11260,10 +10982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:02:49</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44151.58528935185</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11331,10 +11051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:02:48</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44151.58527777778</v>
       </c>
       <c r="I150" t="n">
         <v>2</v>
@@ -11410,10 +11128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:02:43</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44151.58521990741</v>
       </c>
       <c r="I151" t="n">
         <v>19</v>
@@ -11489,10 +11205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:02:43</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44151.58521990741</v>
       </c>
       <c r="I152" t="n">
         <v>7</v>
@@ -11569,10 +11283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:02:34</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44151.58511574074</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11648,10 +11360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:02:31</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44151.58508101852</v>
       </c>
       <c r="I154" t="n">
         <v>9</v>
@@ -11715,10 +11425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:02:28</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44151.5850462963</v>
       </c>
       <c r="I155" t="n">
         <v>35</v>
@@ -11782,10 +11490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:02:16</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44151.58490740741</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11853,10 +11559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:02:06</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44151.58479166667</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11924,10 +11628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:01:55</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44151.58466435185</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11987,10 +11689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:01:20</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44151.58425925926</v>
       </c>
       <c r="I159" t="n">
         <v>33</v>
@@ -12064,10 +11764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:01:03</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44151.5840625</v>
       </c>
       <c r="I160" t="n">
         <v>2</v>
@@ -12135,10 +11833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:01:00</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44151.58402777778</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12206,10 +11902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:00:41</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44151.58380787037</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12277,10 +11971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:00:34</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44151.58372685185</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>
@@ -12356,10 +12048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:00:32</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44151.58370370371</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12423,10 +12113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:00:20</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44151.58356481481</v>
       </c>
       <c r="I165" t="n">
         <v>295</v>
@@ -12490,10 +12178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-11-16 14:00:10</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44151.58344907407</v>
       </c>
       <c r="I166" t="n">
         <v>95</v>
